--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2021/AVERAGE_1_9_matched_error_tables_first_since_2021.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2021/AVERAGE_1_9_matched_error_tables_first_since_2021.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.0342957643794682</v>
+        <v>0.01792803175822741</v>
       </c>
       <c r="C2">
-        <v>0.7101899723806439</v>
+        <v>0.6873742451724051</v>
       </c>
       <c r="D2">
-        <v>1.289702247641167</v>
+        <v>1.225852550159523</v>
       </c>
       <c r="E2">
-        <v>1.135650583428357</v>
+        <v>1.107182256974669</v>
       </c>
       <c r="F2">
-        <v>1.168041822059525</v>
+        <v>1.137372497882221</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.09419378466692055</v>
+        <v>-0.06608967275348025</v>
       </c>
       <c r="C3">
-        <v>0.7263691106458039</v>
+        <v>0.7088863950418706</v>
       </c>
       <c r="D3">
-        <v>1.279513535791599</v>
+        <v>1.217845040002488</v>
       </c>
       <c r="E3">
-        <v>1.131155840630105</v>
+        <v>1.103560166009306</v>
       </c>
       <c r="F3">
-        <v>1.161919159576874</v>
+        <v>1.133515860779062</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.01452796885655562</v>
+        <v>0.001870457576035796</v>
       </c>
       <c r="C4">
-        <v>0.6449257719856665</v>
+        <v>0.6187918867460556</v>
       </c>
       <c r="D4">
-        <v>0.6594285754915293</v>
+        <v>0.6230069128923086</v>
       </c>
       <c r="E4">
-        <v>0.8120520768346876</v>
+        <v>0.7893078695238688</v>
       </c>
       <c r="F4">
-        <v>0.8385495500286558</v>
+        <v>0.8135976448302396</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1214333987610199</v>
+        <v>0.1204196123905843</v>
       </c>
       <c r="C5">
-        <v>0.5559316072544916</v>
+        <v>0.5277616828532142</v>
       </c>
       <c r="D5">
-        <v>0.6436157385709567</v>
+        <v>0.6040816134619066</v>
       </c>
       <c r="E5">
-        <v>0.8022566538028567</v>
+        <v>0.7772268738675385</v>
       </c>
       <c r="F5">
-        <v>0.8208464717918832</v>
+        <v>0.7930233996807294</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1100766701296047</v>
+        <v>0.09828742272023362</v>
       </c>
       <c r="C6">
-        <v>0.6331329798229993</v>
+        <v>0.5953749172355302</v>
       </c>
       <c r="D6">
-        <v>0.8344368118122822</v>
+        <v>0.77910483569946</v>
       </c>
       <c r="E6">
-        <v>0.9134751292795454</v>
+        <v>0.8826691541565617</v>
       </c>
       <c r="F6">
-        <v>0.9410501147072328</v>
+        <v>0.9079673638532668</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1202217260547541</v>
+        <v>0.1268913055883079</v>
       </c>
       <c r="C7">
-        <v>0.725374050118756</v>
+        <v>0.6888184636477384</v>
       </c>
       <c r="D7">
-        <v>1.112588565926975</v>
+        <v>1.036376752836633</v>
       </c>
       <c r="E7">
-        <v>1.054793138926764</v>
+        <v>1.018025909707917</v>
       </c>
       <c r="F7">
-        <v>1.090709208598091</v>
+        <v>1.048216613390359</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1658063259438212</v>
+        <v>0.1309701764864839</v>
       </c>
       <c r="C8">
-        <v>0.6309400691156152</v>
+        <v>0.6044880343376112</v>
       </c>
       <c r="D8">
-        <v>0.7997838625757091</v>
+        <v>0.7446009131626561</v>
       </c>
       <c r="E8">
-        <v>0.8943063583446721</v>
+        <v>0.8629026093150119</v>
       </c>
       <c r="F8">
-        <v>0.917878259814084</v>
+        <v>0.8877321498458313</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.229040221084952</v>
+        <v>0.1991520669947553</v>
       </c>
       <c r="C9">
-        <v>0.6860221306146445</v>
+        <v>0.6396550887298748</v>
       </c>
       <c r="D9">
-        <v>0.8668277748820259</v>
+        <v>0.7959921877658299</v>
       </c>
       <c r="E9">
-        <v>0.9310358612223408</v>
+        <v>0.8921839427863684</v>
       </c>
       <c r="F9">
-        <v>0.9464698554143816</v>
+        <v>0.9083435325175242</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.2065576565952155</v>
+        <v>0.1894669389442902</v>
       </c>
       <c r="C10">
-        <v>0.8649186630966653</v>
+        <v>0.7879769448546992</v>
       </c>
       <c r="D10">
-        <v>1.231078921167422</v>
+        <v>1.119193970586897</v>
       </c>
       <c r="E10">
-        <v>1.109539959247716</v>
+        <v>1.057919642783372</v>
       </c>
       <c r="F10">
-        <v>1.149112147930506</v>
+        <v>1.09161617549273</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.2295085073280172</v>
+        <v>0.1730349822307496</v>
       </c>
       <c r="C11">
-        <v>0.7023738685021207</v>
+        <v>0.6656591560163745</v>
       </c>
       <c r="D11">
-        <v>1.003695188930051</v>
+        <v>0.9145633670025062</v>
       </c>
       <c r="E11">
-        <v>1.001845890808587</v>
+        <v>0.9563280645272867</v>
       </c>
       <c r="F11">
-        <v>1.034359059148892</v>
+        <v>0.9914200040160747</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2021/AVERAGE_1_9_matched_error_tables_first_since_2021.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2021/AVERAGE_1_9_matched_error_tables_first_since_2021.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01792803175822741</v>
+        <v>-0.06608967275348025</v>
       </c>
       <c r="C2">
-        <v>0.6873742451724051</v>
+        <v>0.7088863950418706</v>
       </c>
       <c r="D2">
-        <v>1.225852550159523</v>
+        <v>1.217845040002488</v>
       </c>
       <c r="E2">
-        <v>1.107182256974669</v>
+        <v>1.103560166009306</v>
       </c>
       <c r="F2">
-        <v>1.137372497882221</v>
+        <v>1.133515860779062</v>
       </c>
       <c r="G2">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.06608967275348025</v>
+        <v>0.001870457576035796</v>
       </c>
       <c r="C3">
-        <v>0.7088863950418706</v>
+        <v>0.6187918867460556</v>
       </c>
       <c r="D3">
-        <v>1.217845040002488</v>
+        <v>0.6230069128923086</v>
       </c>
       <c r="E3">
-        <v>1.103560166009306</v>
+        <v>0.7893078695238688</v>
       </c>
       <c r="F3">
-        <v>1.133515860779062</v>
+        <v>0.8135976448302396</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.001870457576035796</v>
+        <v>0.1204196123905843</v>
       </c>
       <c r="C4">
-        <v>0.6187918867460556</v>
+        <v>0.5277616828532142</v>
       </c>
       <c r="D4">
-        <v>0.6230069128923086</v>
+        <v>0.6040816134619066</v>
       </c>
       <c r="E4">
-        <v>0.7893078695238688</v>
+        <v>0.7772268738675385</v>
       </c>
       <c r="F4">
-        <v>0.8135976448302396</v>
+        <v>0.7930233996807294</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1204196123905843</v>
+        <v>0.09828742272023362</v>
       </c>
       <c r="C5">
-        <v>0.5277616828532142</v>
+        <v>0.5953749172355302</v>
       </c>
       <c r="D5">
-        <v>0.6040816134619066</v>
+        <v>0.77910483569946</v>
       </c>
       <c r="E5">
-        <v>0.7772268738675385</v>
+        <v>0.8826691541565617</v>
       </c>
       <c r="F5">
-        <v>0.7930233996807294</v>
+        <v>0.9079673638532668</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.09828742272023362</v>
+        <v>0.1268913055883079</v>
       </c>
       <c r="C6">
-        <v>0.5953749172355302</v>
+        <v>0.6888184636477384</v>
       </c>
       <c r="D6">
-        <v>0.77910483569946</v>
+        <v>1.036376752836633</v>
       </c>
       <c r="E6">
-        <v>0.8826691541565617</v>
+        <v>1.018025909707917</v>
       </c>
       <c r="F6">
-        <v>0.9079673638532668</v>
+        <v>1.048216613390359</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1268913055883079</v>
+        <v>0.1309701764864839</v>
       </c>
       <c r="C7">
-        <v>0.6888184636477384</v>
+        <v>0.6044880343376112</v>
       </c>
       <c r="D7">
-        <v>1.036376752836633</v>
+        <v>0.7446009131626561</v>
       </c>
       <c r="E7">
-        <v>1.018025909707917</v>
+        <v>0.8629026093150119</v>
       </c>
       <c r="F7">
-        <v>1.048216613390359</v>
+        <v>0.8877321498458313</v>
       </c>
       <c r="G7">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1309701764864839</v>
+        <v>0.1991520669947553</v>
       </c>
       <c r="C8">
-        <v>0.6044880343376112</v>
+        <v>0.6396550887298748</v>
       </c>
       <c r="D8">
-        <v>0.7446009131626561</v>
+        <v>0.7959921877658299</v>
       </c>
       <c r="E8">
-        <v>0.8629026093150119</v>
+        <v>0.8921839427863684</v>
       </c>
       <c r="F8">
-        <v>0.8877321498458313</v>
+        <v>0.9083435325175242</v>
       </c>
       <c r="G8">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.1991520669947553</v>
+        <v>0.1894669389442902</v>
       </c>
       <c r="C9">
-        <v>0.6396550887298748</v>
+        <v>0.7879769448546992</v>
       </c>
       <c r="D9">
-        <v>0.7959921877658299</v>
+        <v>1.119193970586897</v>
       </c>
       <c r="E9">
-        <v>0.8921839427863684</v>
+        <v>1.057919642783372</v>
       </c>
       <c r="F9">
-        <v>0.9083435325175242</v>
+        <v>1.09161617549273</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1894669389442902</v>
+        <v>0.1730349822307496</v>
       </c>
       <c r="C10">
-        <v>0.7879769448546992</v>
+        <v>0.6656591560163745</v>
       </c>
       <c r="D10">
-        <v>1.119193970586897</v>
+        <v>0.9145633670025062</v>
       </c>
       <c r="E10">
-        <v>1.057919642783372</v>
+        <v>0.9563280645272867</v>
       </c>
       <c r="F10">
-        <v>1.09161617549273</v>
+        <v>0.9914200040160747</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.1730349822307496</v>
+        <v>0.2315707031541324</v>
       </c>
       <c r="C11">
-        <v>0.6656591560163745</v>
+        <v>0.8270225223868328</v>
       </c>
       <c r="D11">
-        <v>0.9145633670025062</v>
+        <v>0.9737462206433012</v>
       </c>
       <c r="E11">
-        <v>0.9563280645272867</v>
+        <v>0.9867858028180692</v>
       </c>
       <c r="F11">
-        <v>0.9914200040160747</v>
+        <v>1.01741652426354</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2021/AVERAGE_1_9_matched_error_tables_first_since_2021.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2021/AVERAGE_1_9_matched_error_tables_first_since_2021.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.06608967275348025</v>
+        <v>0.01792803175822741</v>
       </c>
       <c r="C2">
-        <v>0.7088863950418706</v>
+        <v>0.6873742451724051</v>
       </c>
       <c r="D2">
-        <v>1.217845040002488</v>
+        <v>1.225852550159523</v>
       </c>
       <c r="E2">
-        <v>1.103560166009306</v>
+        <v>1.107182256974669</v>
       </c>
       <c r="F2">
-        <v>1.133515860779062</v>
+        <v>1.137372497882221</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.001870457576035796</v>
+        <v>-0.06608967275348025</v>
       </c>
       <c r="C3">
-        <v>0.6187918867460556</v>
+        <v>0.7088863950418706</v>
       </c>
       <c r="D3">
-        <v>0.6230069128923086</v>
+        <v>1.217845040002488</v>
       </c>
       <c r="E3">
-        <v>0.7893078695238688</v>
+        <v>1.103560166009306</v>
       </c>
       <c r="F3">
-        <v>0.8135976448302396</v>
+        <v>1.133515860779062</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.1204196123905843</v>
+        <v>0.001870457576035796</v>
       </c>
       <c r="C4">
-        <v>0.5277616828532142</v>
+        <v>0.6187918867460556</v>
       </c>
       <c r="D4">
-        <v>0.6040816134619066</v>
+        <v>0.6230069128923086</v>
       </c>
       <c r="E4">
-        <v>0.7772268738675385</v>
+        <v>0.7893078695238688</v>
       </c>
       <c r="F4">
-        <v>0.7930233996807294</v>
+        <v>0.8135976448302396</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.09828742272023362</v>
+        <v>0.1204196123905843</v>
       </c>
       <c r="C5">
-        <v>0.5953749172355302</v>
+        <v>0.5277616828532142</v>
       </c>
       <c r="D5">
-        <v>0.77910483569946</v>
+        <v>0.6040816134619066</v>
       </c>
       <c r="E5">
-        <v>0.8826691541565617</v>
+        <v>0.7772268738675385</v>
       </c>
       <c r="F5">
-        <v>0.9079673638532668</v>
+        <v>0.7930233996807294</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1268913055883079</v>
+        <v>0.09828742272023362</v>
       </c>
       <c r="C6">
-        <v>0.6888184636477384</v>
+        <v>0.5953749172355302</v>
       </c>
       <c r="D6">
-        <v>1.036376752836633</v>
+        <v>0.77910483569946</v>
       </c>
       <c r="E6">
-        <v>1.018025909707917</v>
+        <v>0.8826691541565617</v>
       </c>
       <c r="F6">
-        <v>1.048216613390359</v>
+        <v>0.9079673638532668</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1309701764864839</v>
+        <v>0.1268913055883079</v>
       </c>
       <c r="C7">
-        <v>0.6044880343376112</v>
+        <v>0.6888184636477384</v>
       </c>
       <c r="D7">
-        <v>0.7446009131626561</v>
+        <v>1.036376752836633</v>
       </c>
       <c r="E7">
-        <v>0.8629026093150119</v>
+        <v>1.018025909707917</v>
       </c>
       <c r="F7">
-        <v>0.8877321498458313</v>
+        <v>1.048216613390359</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1991520669947553</v>
+        <v>0.1309701764864839</v>
       </c>
       <c r="C8">
-        <v>0.6396550887298748</v>
+        <v>0.6044880343376112</v>
       </c>
       <c r="D8">
-        <v>0.7959921877658299</v>
+        <v>0.7446009131626561</v>
       </c>
       <c r="E8">
-        <v>0.8921839427863684</v>
+        <v>0.8629026093150119</v>
       </c>
       <c r="F8">
-        <v>0.9083435325175242</v>
+        <v>0.8877321498458313</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.1894669389442902</v>
+        <v>0.1991520669947553</v>
       </c>
       <c r="C9">
-        <v>0.7879769448546992</v>
+        <v>0.6396550887298748</v>
       </c>
       <c r="D9">
-        <v>1.119193970586897</v>
+        <v>0.7959921877658299</v>
       </c>
       <c r="E9">
-        <v>1.057919642783372</v>
+        <v>0.8921839427863684</v>
       </c>
       <c r="F9">
-        <v>1.09161617549273</v>
+        <v>0.9083435325175242</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1730349822307496</v>
+        <v>0.1894669389442902</v>
       </c>
       <c r="C10">
-        <v>0.6656591560163745</v>
+        <v>0.7879769448546992</v>
       </c>
       <c r="D10">
-        <v>0.9145633670025062</v>
+        <v>1.119193970586897</v>
       </c>
       <c r="E10">
-        <v>0.9563280645272867</v>
+        <v>1.057919642783372</v>
       </c>
       <c r="F10">
-        <v>0.9914200040160747</v>
+        <v>1.09161617549273</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.2315707031541324</v>
+        <v>0.1730349822307496</v>
       </c>
       <c r="C11">
-        <v>0.8270225223868328</v>
+        <v>0.6656591560163745</v>
       </c>
       <c r="D11">
-        <v>0.9737462206433012</v>
+        <v>0.9145633670025062</v>
       </c>
       <c r="E11">
-        <v>0.9867858028180692</v>
+        <v>0.9563280645272867</v>
       </c>
       <c r="F11">
-        <v>1.01741652426354</v>
+        <v>0.9914200040160747</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
